--- a/Ожидаемое потребление предприятия за пятилетку с учетом мероприятий.xlsx
+++ b/Ожидаемое потребление предприятия за пятилетку с учетом мероприятий.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4EBE04-0514-42D3-B222-5545FB8A897C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51755D-7883-4B7A-9953-66D5095D4E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22905" yWindow="5670" windowWidth="28800" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="14115" windowHeight="7260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="6" r:id="rId1"/>
@@ -216,6 +216,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1561,9 +1565,6 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1573,15 +1574,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1611,24 +1633,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -2143,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAB9620-7FF4-460B-9F60-616761407018}">
   <dimension ref="A1:U37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2180,23 +2184,23 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="198"/>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
-      <c r="M3" s="198"/>
+      <c r="A3" s="201"/>
+      <c r="B3" s="201"/>
+      <c r="C3" s="201"/>
+      <c r="D3" s="201"/>
+      <c r="E3" s="201"/>
+      <c r="F3" s="201"/>
+      <c r="G3" s="201"/>
+      <c r="H3" s="201"/>
+      <c r="I3" s="201"/>
+      <c r="J3" s="201"/>
+      <c r="K3" s="201"/>
+      <c r="L3" s="201"/>
+      <c r="M3" s="201"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="198"/>
-      <c r="B4" s="198"/>
+      <c r="A4" s="201"/>
+      <c r="B4" s="201"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -2210,7 +2214,7 @@
       <c r="M4" s="189"/>
     </row>
     <row r="5" spans="1:21" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="198"/>
+      <c r="A5" s="201"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -2225,7 +2229,7 @@
       <c r="M5" s="191"/>
     </row>
     <row r="6" spans="1:21" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="198"/>
+      <c r="A6" s="201"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -2240,7 +2244,7 @@
       <c r="M6" s="191"/>
     </row>
     <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="198"/>
+      <c r="A7" s="201"/>
       <c r="B7" s="8"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -2483,29 +2487,29 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="198" t="s">
+      <c r="A21" s="201" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="198" t="s">
+      <c r="B21" s="201" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="198" t="s">
+      <c r="C21" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="198"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
-      <c r="L21" s="198"/>
-      <c r="M21" s="198"/>
+      <c r="D21" s="201"/>
+      <c r="E21" s="201"/>
+      <c r="F21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="201"/>
+      <c r="I21" s="201"/>
+      <c r="J21" s="201"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="198"/>
-      <c r="B22" s="198"/>
+      <c r="A22" s="201"/>
+      <c r="B22" s="201"/>
       <c r="C22" s="7">
         <f t="shared" ref="C22:G22" si="2">C4</f>
         <v>0</v>
@@ -2548,7 +2552,7 @@
       <c r="R22" s="18"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="199" t="s">
+      <c r="A23" s="198" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -2570,30 +2574,30 @@
       </c>
       <c r="I23" s="183">
         <f>I25+I28+I31</f>
-        <v>4380.5618999999997</v>
+        <v>4461.7172999999993</v>
       </c>
       <c r="J23" s="183">
         <f t="shared" ref="J23:M23" si="3">J25+J28+J31</f>
-        <v>4254.6080000000002</v>
+        <v>4415.8363999999992</v>
       </c>
       <c r="K23" s="183">
         <f t="shared" si="3"/>
-        <v>4146.1220000000003</v>
+        <v>4351.8025999999991</v>
       </c>
       <c r="L23" s="183">
         <f t="shared" si="3"/>
-        <v>4040.8708999999999</v>
+        <v>4292.2828999999992</v>
       </c>
       <c r="M23" s="183">
         <f t="shared" si="3"/>
-        <v>3937.8830000000003</v>
+        <v>4222.9723999999997</v>
       </c>
       <c r="N23" s="25"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="200"/>
+      <c r="A24" s="199"/>
       <c r="B24" s="8" t="s">
         <v>5</v>
       </c>
@@ -2607,34 +2611,34 @@
       </c>
       <c r="I24" s="193">
         <f>I23/H23*100</f>
-        <v>97.259367229129651</v>
+        <v>99.061218916518641</v>
       </c>
       <c r="J24" s="193">
         <f>J23/H23*100</f>
-        <v>94.462877442273538</v>
+        <v>98.042548845470677</v>
       </c>
       <c r="K24" s="193">
         <f>K23/H23*100</f>
-        <v>92.054218472468918</v>
+        <v>96.620839253996422</v>
       </c>
       <c r="L24" s="193">
         <f>L23/H23*100</f>
-        <v>89.717382326820598</v>
+        <v>95.299353907637638</v>
       </c>
       <c r="M24" s="193">
         <f>M23/H23*100</f>
-        <v>87.430794849023101</v>
+        <v>93.760488454706916</v>
       </c>
       <c r="N24" s="25"/>
       <c r="O24" s="197">
         <f>100-M24</f>
-        <v>12.569205150976899</v>
+        <v>6.2395115452930838</v>
       </c>
       <c r="Q24" s="196"/>
       <c r="R24" s="196"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="199" t="s">
+      <c r="A25" s="198" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -2675,7 +2679,7 @@
       <c r="N25" s="25"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="200"/>
+      <c r="A26" s="199"/>
       <c r="B26" s="8" t="s">
         <v>5</v>
       </c>
@@ -2710,7 +2714,7 @@
       <c r="N26" s="25"/>
     </row>
     <row r="27" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="199" t="s">
+      <c r="A27" s="198" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="8" t="s">
@@ -2751,7 +2755,7 @@
       <c r="N27" s="25"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="201"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="8" t="s">
         <v>4</v>
       </c>
@@ -2793,7 +2797,7 @@
       <c r="N28" s="25"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="200"/>
+      <c r="A29" s="199"/>
       <c r="B29" s="8" t="s">
         <v>5</v>
       </c>
@@ -2828,7 +2832,7 @@
       <c r="N29" s="25"/>
     </row>
     <row r="30" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="199" t="s">
+      <c r="A30" s="198" t="s">
         <v>9</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -2847,30 +2851,30 @@
         <v>33671</v>
       </c>
       <c r="I30" s="190">
-        <f>H30-996.7</f>
-        <v>32674.3</v>
+        <f>H30-336.9</f>
+        <v>33334.1</v>
       </c>
       <c r="J30" s="190">
-        <f>I30-918.8</f>
-        <v>31755.5</v>
+        <f>I30-267.8</f>
+        <v>33066.299999999996</v>
       </c>
       <c r="K30" s="190">
-        <f>J30-882</f>
-        <v>30873.5</v>
+        <f>J30-520.6</f>
+        <v>32545.699999999997</v>
       </c>
       <c r="L30" s="190">
-        <f>K30-855.7</f>
-        <v>30017.8</v>
+        <f>K30-483.9</f>
+        <v>32061.799999999996</v>
       </c>
       <c r="M30" s="190">
-        <f>L30-837.3</f>
-        <v>29180.5</v>
+        <f>L30-563.5</f>
+        <v>31498.299999999996</v>
       </c>
       <c r="N30" s="25"/>
       <c r="P30" s="25"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A31" s="201"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="8" t="s">
         <v>4</v>
       </c>
@@ -2891,28 +2895,28 @@
       </c>
       <c r="I31" s="183">
         <f t="shared" ref="I31:M31" si="5">I30*$P$1</f>
-        <v>4018.9388999999996</v>
+        <v>4100.0942999999997</v>
       </c>
       <c r="J31" s="183">
         <f t="shared" si="5"/>
-        <v>3905.9265</v>
+        <v>4067.1548999999995</v>
       </c>
       <c r="K31" s="183">
         <f t="shared" si="5"/>
-        <v>3797.4405000000002</v>
+        <v>4003.1210999999994</v>
       </c>
       <c r="L31" s="183">
         <f t="shared" si="5"/>
-        <v>3692.1893999999998</v>
+        <v>3943.6013999999996</v>
       </c>
       <c r="M31" s="183">
         <f t="shared" si="5"/>
-        <v>3589.2015000000001</v>
+        <v>3874.2908999999995</v>
       </c>
       <c r="N31" s="25"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="199"/>
       <c r="B32" s="8" t="s">
         <v>5</v>
       </c>
@@ -2926,23 +2930,23 @@
       </c>
       <c r="I32" s="193">
         <f>I31/H31*100</f>
-        <v>97.039885955273064</v>
+        <v>98.999435716194924</v>
       </c>
       <c r="J32" s="193">
         <f>J31/H31*100</f>
-        <v>94.311128270618624</v>
+        <v>98.204092542544004</v>
       </c>
       <c r="K32" s="193">
         <f>K31/H31*100</f>
-        <v>91.691663449258996</v>
+        <v>96.657954916693868</v>
       </c>
       <c r="L32" s="193">
         <f>L31/H31*100</f>
-        <v>89.150307386178014</v>
+        <v>95.220813162662211</v>
       </c>
       <c r="M32" s="193">
         <f>M31/H31*100</f>
-        <v>86.663597754744444</v>
+        <v>93.547266193460231</v>
       </c>
       <c r="N32" s="25"/>
     </row>
@@ -2963,17 +2967,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:M3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="C21:M21"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -3057,51 +3061,51 @@
       <c r="Y1" s="30"/>
     </row>
     <row r="2" spans="1:42" s="34" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="205" t="s">
+      <c r="A2" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="214" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="211" t="s">
+      <c r="C2" s="217" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="214" t="s">
+      <c r="D2" s="220" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="214" t="s">
+      <c r="E2" s="220" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="217" t="s">
+      <c r="F2" s="206" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="220" t="s">
+      <c r="G2" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="220"/>
-      <c r="I2" s="220"/>
-      <c r="J2" s="220"/>
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="209"/>
       <c r="K2" s="203" t="s">
         <v>20</v>
       </c>
       <c r="L2" s="203" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="202" t="s">
+      <c r="M2" s="210" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="203" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="218" t="s">
+      <c r="O2" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="218"/>
-      <c r="Q2" s="218"/>
-      <c r="R2" s="218"/>
-      <c r="S2" s="218"/>
-      <c r="T2" s="218"/>
-      <c r="U2" s="218"/>
+      <c r="P2" s="207"/>
+      <c r="Q2" s="207"/>
+      <c r="R2" s="207"/>
+      <c r="S2" s="207"/>
+      <c r="T2" s="207"/>
+      <c r="U2" s="207"/>
       <c r="V2" s="32"/>
       <c r="W2" s="33"/>
       <c r="X2" s="33"/>
@@ -3120,27 +3124,27 @@
       </c>
     </row>
     <row r="3" spans="1:42" s="34" customFormat="1" ht="53.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="206"/>
-      <c r="B3" s="209"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="214"/>
-      <c r="E3" s="214"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="219" t="s">
+      <c r="A3" s="212"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="218"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="208" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="219" t="s">
+      <c r="H3" s="208" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="219" t="s">
+      <c r="I3" s="208" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="217" t="s">
+      <c r="J3" s="206" t="s">
         <v>31</v>
       </c>
       <c r="K3" s="203"/>
       <c r="L3" s="203"/>
-      <c r="M3" s="202"/>
+      <c r="M3" s="210"/>
       <c r="N3" s="203"/>
       <c r="O3" s="203" t="s">
         <v>32</v>
@@ -3181,25 +3185,25 @@
       </c>
     </row>
     <row r="4" spans="1:42" s="34" customFormat="1" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="207"/>
-      <c r="B4" s="210"/>
-      <c r="C4" s="213"/>
-      <c r="D4" s="214"/>
-      <c r="E4" s="214"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="219"/>
-      <c r="H4" s="219"/>
-      <c r="I4" s="219"/>
-      <c r="J4" s="217"/>
+      <c r="A4" s="213"/>
+      <c r="B4" s="216"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="208"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="206"/>
       <c r="K4" s="203"/>
       <c r="L4" s="203"/>
-      <c r="M4" s="202"/>
+      <c r="M4" s="210"/>
       <c r="N4" s="203"/>
       <c r="O4" s="204"/>
       <c r="P4" s="204"/>
       <c r="Q4" s="204"/>
-      <c r="R4" s="216"/>
-      <c r="S4" s="216"/>
+      <c r="R4" s="205"/>
+      <c r="S4" s="205"/>
       <c r="T4" s="204"/>
       <c r="U4" s="204"/>
       <c r="V4" s="37"/>
@@ -3240,26 +3244,26 @@
       <c r="A5" s="41"/>
       <c r="B5" s="42"/>
       <c r="C5" s="43"/>
-      <c r="D5" s="215" t="s">
+      <c r="D5" s="202" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="215"/>
-      <c r="F5" s="215"/>
-      <c r="G5" s="215"/>
-      <c r="H5" s="215"/>
-      <c r="I5" s="215"/>
-      <c r="J5" s="215"/>
-      <c r="K5" s="215"/>
-      <c r="L5" s="215"/>
-      <c r="M5" s="215"/>
-      <c r="N5" s="215"/>
-      <c r="O5" s="215"/>
-      <c r="P5" s="215"/>
-      <c r="Q5" s="215"/>
-      <c r="R5" s="215"/>
-      <c r="S5" s="215"/>
-      <c r="T5" s="215"/>
-      <c r="U5" s="215"/>
+      <c r="E5" s="202"/>
+      <c r="F5" s="202"/>
+      <c r="G5" s="202"/>
+      <c r="H5" s="202"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="202"/>
+      <c r="K5" s="202"/>
+      <c r="L5" s="202"/>
+      <c r="M5" s="202"/>
+      <c r="N5" s="202"/>
+      <c r="O5" s="202"/>
+      <c r="P5" s="202"/>
+      <c r="Q5" s="202"/>
+      <c r="R5" s="202"/>
+      <c r="S5" s="202"/>
+      <c r="T5" s="202"/>
+      <c r="U5" s="202"/>
       <c r="V5" s="44"/>
       <c r="W5" s="33"/>
       <c r="X5" s="45"/>
@@ -6864,6 +6868,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="M2:M4"/>
+    <mergeCell ref="N2:N4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
     <mergeCell ref="D5:U5"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
@@ -6880,14 +6892,6 @@
     <mergeCell ref="G2:J2"/>
     <mergeCell ref="K2:K4"/>
     <mergeCell ref="L2:L4"/>
-    <mergeCell ref="M2:M4"/>
-    <mergeCell ref="N2:N4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.11811023622047245" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="87" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
